--- a/pm/ressourcenplanung.xlsx
+++ b/pm/ressourcenplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Ressourcenplanung" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="26">
   <si>
     <t>SW 1</t>
   </si>
@@ -261,7 +261,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -277,7 +277,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema di Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -566,22 +566,22 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P7" sqref="P7"/>
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="14" width="8.28515625" customWidth="1"/>
-    <col min="15" max="15" width="4.5703125" customWidth="1"/>
-    <col min="17" max="17" width="39.7109375" customWidth="1"/>
+    <col min="1" max="14" width="8.33203125" customWidth="1"/>
+    <col min="15" max="15" width="4.5546875" customWidth="1"/>
+    <col min="17" max="17" width="39.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="18" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:17" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="27" t="s">
         <v>0</v>
       </c>
@@ -630,7 +630,7 @@
       </c>
       <c r="Q2" s="1"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="C3" s="11"/>
@@ -646,7 +646,7 @@
       <c r="M3" s="11"/>
       <c r="N3" s="7"/>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="12"/>
       <c r="B4" s="12"/>
       <c r="C4" s="12"/>
@@ -668,7 +668,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -690,7 +690,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="13"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -712,7 +712,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="14"/>
@@ -728,7 +728,7 @@
       <c r="M7" s="14"/>
       <c r="N7" s="10"/>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="14"/>
       <c r="B8" s="14"/>
       <c r="C8" s="14"/>
@@ -744,12 +744,12 @@
       <c r="M8" s="14"/>
       <c r="N8" s="10"/>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="18" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="27" t="s">
         <v>0</v>
       </c>
@@ -797,11 +797,10 @@
       </c>
       <c r="Q11" s="1"/>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
-      <c r="C12" s="19"/>
-      <c r="D12" s="19"/>
+      <c r="D12" s="11"/>
       <c r="E12" s="19"/>
       <c r="F12" s="19"/>
       <c r="G12" s="19"/>
@@ -813,11 +812,11 @@
       <c r="M12" s="19"/>
       <c r="N12" s="20"/>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="12"/>
       <c r="B13" s="12"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="12"/>
       <c r="E13" s="21"/>
       <c r="F13" s="21"/>
       <c r="G13" s="21"/>
@@ -828,18 +827,18 @@
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
-      <c r="P13" s="17" t="s">
-        <v>16</v>
+      <c r="P13" s="17">
+        <v>4</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="12"/>
       <c r="B14" s="12"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="21"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
       <c r="E14" s="21"/>
       <c r="F14" s="21"/>
       <c r="G14" s="21"/>
@@ -850,18 +849,18 @@
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
-      <c r="P14" s="17" t="s">
-        <v>17</v>
+      <c r="P14" s="17">
+        <v>8</v>
       </c>
       <c r="Q14" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="13"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="23"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
       <c r="E15" s="23"/>
       <c r="F15" s="23"/>
       <c r="G15" s="23"/>
@@ -872,18 +871,18 @@
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="24"/>
-      <c r="P15" s="17" t="s">
-        <v>18</v>
+      <c r="P15" s="17">
+        <v>11</v>
       </c>
       <c r="Q15" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="25"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
@@ -895,11 +894,11 @@
       <c r="M16" s="25"/>
       <c r="N16" s="26"/>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
@@ -911,31 +910,31 @@
       <c r="M17" s="25"/>
       <c r="N17" s="26"/>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P19" s="6" t="s">
         <v>14</v>
       </c>
       <c r="Q19" s="6"/>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P21" s="16"/>
       <c r="Q21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P23" s="2"/>
       <c r="Q23" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P24" s="3"/>
       <c r="Q24" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="P25" s="4"/>
       <c r="Q25" t="s">
         <v>19</v>

--- a/pm/ressourcenplanung.xlsx
+++ b/pm/ressourcenplanung.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -801,9 +801,9 @@
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="D12" s="11"/>
-      <c r="E12" s="19"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11"/>
       <c r="H12" s="19"/>
       <c r="I12" s="19"/>
       <c r="J12" s="19"/>
@@ -817,9 +817,9 @@
       <c r="B13" s="12"/>
       <c r="C13" s="11"/>
       <c r="D13" s="12"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="21"/>
-      <c r="G13" s="21"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
       <c r="H13" s="21"/>
       <c r="I13" s="21"/>
       <c r="J13" s="21"/>
@@ -839,9 +839,9 @@
       <c r="B14" s="12"/>
       <c r="C14" s="12"/>
       <c r="D14" s="12"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="21"/>
-      <c r="G14" s="21"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
       <c r="H14" s="21"/>
       <c r="I14" s="21"/>
       <c r="J14" s="21"/>
@@ -861,9 +861,9 @@
       <c r="B15" s="13"/>
       <c r="C15" s="12"/>
       <c r="D15" s="13"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="13"/>
       <c r="H15" s="23"/>
       <c r="I15" s="23"/>
       <c r="J15" s="23"/>
@@ -883,9 +883,9 @@
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
       <c r="D16" s="14"/>
-      <c r="E16" s="25"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
       <c r="H16" s="25"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -899,9 +899,9 @@
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
       <c r="D17" s="14"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
       <c r="H17" s="25"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>

--- a/pm/ressourcenplanung.xlsx
+++ b/pm/ressourcenplanung.xlsx
@@ -566,7 +566,7 @@
   <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -804,8 +804,8 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="19"/>
-      <c r="I12" s="19"/>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11"/>
       <c r="J12" s="19"/>
       <c r="K12" s="19"/>
       <c r="L12" s="19"/>
@@ -820,15 +820,15 @@
       <c r="E13" s="12"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="21"/>
-      <c r="I13" s="21"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
       <c r="M13" s="21"/>
       <c r="N13" s="22"/>
       <c r="P13" s="17">
-        <v>4</v>
+        <v>36</v>
       </c>
       <c r="Q13" t="s">
         <v>21</v>
@@ -842,15 +842,15 @@
       <c r="E14" s="12"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="21"/>
-      <c r="I14" s="21"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
       <c r="M14" s="21"/>
       <c r="N14" s="22"/>
       <c r="P14" s="17">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="Q14" t="s">
         <v>20</v>
@@ -864,15 +864,15 @@
       <c r="E15" s="13"/>
       <c r="F15" s="13"/>
       <c r="G15" s="13"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="23"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="23"/>
       <c r="M15" s="23"/>
       <c r="N15" s="24"/>
       <c r="P15" s="17">
-        <v>11</v>
+        <v>107</v>
       </c>
       <c r="Q15" t="s">
         <v>19</v>
@@ -886,8 +886,8 @@
       <c r="E16" s="14"/>
       <c r="F16" s="14"/>
       <c r="G16" s="14"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="25"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
       <c r="J16" s="25"/>
       <c r="K16" s="25"/>
       <c r="L16" s="25"/>
@@ -902,8 +902,8 @@
       <c r="E17" s="14"/>
       <c r="F17" s="14"/>
       <c r="G17" s="14"/>
-      <c r="H17" s="25"/>
-      <c r="I17" s="25"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
